--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LED_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B698AD-4C82-4D88-82EA-07042755457D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4CF83B-F2DE-477B-92AB-4FBD85963B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -953,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,13 +1150,13 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>26011009034</v>
+        <v>26011018018</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1168,73 +1168,73 @@
         <v>1</v>
       </c>
       <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <v>0.75</v>
+      </c>
+      <c r="AC3">
         <v>4</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>2</v>
-      </c>
-      <c r="AB3">
-        <v>0.71</v>
-      </c>
-      <c r="AC3">
-        <v>5</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -1242,13 +1242,13 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>26011011005</v>
+        <v>26021035008</v>
       </c>
       <c r="B4">
         <v>14</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1323,102 +1323,102 @@
         <v>2</v>
       </c>
       <c r="AB4">
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
       <c r="AC4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>26141270009</v>
+        <v>26021035009</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
       <c r="AA5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB5">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="AC5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>26141270011</v>
+        <v>26021035013</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -1498,16 +1498,16 @@
         <v>1</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB6">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="AC6">
         <v>2</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>26141270034</v>
+        <v>26021035024</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1533,83 +1533,542 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
         <v>3</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AA7">
+      <c r="AB7">
+        <v>0.69</v>
+      </c>
+      <c r="AC7">
+        <v>3</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>26031048033</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
         <v>2</v>
       </c>
-      <c r="AB7">
+      <c r="AB8">
+        <v>0.59</v>
+      </c>
+      <c r="AC8">
+        <v>4</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>26022036034</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <v>0.63</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>26022036035</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10">
         <v>0.64</v>
       </c>
-      <c r="AC7">
+      <c r="AC10">
         <v>4</v>
       </c>
-      <c r="AD7">
+      <c r="AD10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>26022036036</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>3</v>
+      </c>
+      <c r="AB11">
+        <v>0.06</v>
+      </c>
+      <c r="AC11">
+        <v>3</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>26022036037</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AA12">
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <v>0.19</v>
+      </c>
+      <c r="AC12">
+        <v>2</v>
+      </c>
+      <c r="AD12">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD7" xr:uid="{14429E72-20DE-4710-BD5E-F310A5C64F26}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD7">
     <sortCondition ref="A1"/>
   </sortState>

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LED_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4CF83B-F2DE-477B-92AB-4FBD85963B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38873B63-50FC-463D-8B3D-3C1A78986403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="test_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test_data!$A$1:$AD$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test_data!$A$1:$AC$7</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>STUID</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Forum_Contribution</t>
-  </si>
-  <si>
-    <t>Attendance</t>
   </si>
   <si>
     <t>Faculty_Feedback</t>
@@ -953,18 +950,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1052,11 +1076,8 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>26011005014</v>
       </c>
@@ -1139,16 +1160,13 @@
         <v>2</v>
       </c>
       <c r="AB2">
-        <v>0.84</v>
+        <v>3</v>
       </c>
       <c r="AC2">
-        <v>3</v>
-      </c>
-      <c r="AD2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>26011018018</v>
       </c>
@@ -1231,16 +1249,13 @@
         <v>3</v>
       </c>
       <c r="AB3">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="AC3">
-        <v>4</v>
-      </c>
-      <c r="AD3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>26021035008</v>
       </c>
@@ -1323,16 +1338,13 @@
         <v>2</v>
       </c>
       <c r="AB4">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="AC4">
-        <v>4</v>
-      </c>
-      <c r="AD4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>26021035009</v>
       </c>
@@ -1415,16 +1427,13 @@
         <v>2</v>
       </c>
       <c r="AB5">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="AC5">
-        <v>2</v>
-      </c>
-      <c r="AD5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>26021035013</v>
       </c>
@@ -1507,16 +1516,13 @@
         <v>3</v>
       </c>
       <c r="AB6">
-        <v>0.77</v>
+        <v>2</v>
       </c>
       <c r="AC6">
-        <v>2</v>
-      </c>
-      <c r="AD6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>26021035024</v>
       </c>
@@ -1599,16 +1605,13 @@
         <v>3</v>
       </c>
       <c r="AB7">
-        <v>0.69</v>
+        <v>3</v>
       </c>
       <c r="AC7">
-        <v>3</v>
-      </c>
-      <c r="AD7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>26031048033</v>
       </c>
@@ -1691,16 +1694,13 @@
         <v>2</v>
       </c>
       <c r="AB8">
-        <v>0.59</v>
+        <v>4</v>
       </c>
       <c r="AC8">
-        <v>4</v>
-      </c>
-      <c r="AD8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>26022036034</v>
       </c>
@@ -1783,16 +1783,13 @@
         <v>3</v>
       </c>
       <c r="AB9">
-        <v>0.63</v>
+        <v>3</v>
       </c>
       <c r="AC9">
-        <v>3</v>
-      </c>
-      <c r="AD9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>26022036035</v>
       </c>
@@ -1875,16 +1872,13 @@
         <v>2</v>
       </c>
       <c r="AB10">
-        <v>0.64</v>
+        <v>4</v>
       </c>
       <c r="AC10">
-        <v>4</v>
-      </c>
-      <c r="AD10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>26022036036</v>
       </c>
@@ -1967,16 +1961,13 @@
         <v>3</v>
       </c>
       <c r="AB11">
-        <v>0.06</v>
+        <v>3</v>
       </c>
       <c r="AC11">
-        <v>3</v>
-      </c>
-      <c r="AD11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>26022036037</v>
       </c>
@@ -2059,17 +2050,14 @@
         <v>3</v>
       </c>
       <c r="AB12">
-        <v>0.19</v>
+        <v>2</v>
       </c>
       <c r="AC12">
-        <v>2</v>
-      </c>
-      <c r="AD12">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC7">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LED_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38873B63-50FC-463D-8B3D-3C1A78986403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015BB519-2631-4F4A-893D-71872E33CD6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="test_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test_data!$A$1:$AC$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test_data!$A$1:$AB$7</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>STUID</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Siblings</t>
-  </si>
-  <si>
-    <t>Disability</t>
   </si>
   <si>
     <t>Comp_Internet</t>
@@ -950,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,34 +958,33 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1073,11 +1069,8 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>26011005014</v>
       </c>
@@ -1091,82 +1084,79 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>2</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
       </c>
       <c r="Z2">
         <v>2</v>
       </c>
       <c r="AA2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB2">
-        <v>3</v>
-      </c>
-      <c r="AC2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>26011018018</v>
       </c>
@@ -1180,16 +1170,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1201,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1213,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1231,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -1243,19 +1233,16 @@
         <v>1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB3">
-        <v>4</v>
-      </c>
-      <c r="AC3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>26021035008</v>
       </c>
@@ -1269,28 +1256,28 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1302,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1320,31 +1307,28 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <v>1</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB4">
-        <v>4</v>
-      </c>
-      <c r="AC4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>26021035009</v>
       </c>
@@ -1358,31 +1342,31 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1391,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1409,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1418,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5">
         <v>2</v>
@@ -1427,13 +1411,10 @@
         <v>2</v>
       </c>
       <c r="AB5">
-        <v>2</v>
-      </c>
-      <c r="AC5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>26021035013</v>
       </c>
@@ -1447,82 +1428,79 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
         <v>3</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
       <c r="AA6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB6">
-        <v>2</v>
-      </c>
-      <c r="AC6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>26021035024</v>
       </c>
@@ -1536,31 +1514,31 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1569,49 +1547,46 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <v>1</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA7">
         <v>3</v>
       </c>
       <c r="AB7">
-        <v>3</v>
-      </c>
-      <c r="AC7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>26031048033</v>
       </c>
@@ -1622,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1631,13 +1606,13 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1646,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1658,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -1670,37 +1645,34 @@
         <v>1</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <v>1</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB8">
-        <v>4</v>
-      </c>
-      <c r="AC8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>26022036034</v>
       </c>
@@ -1714,82 +1686,79 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>3</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
       </c>
       <c r="AA9">
         <v>3</v>
       </c>
       <c r="AB9">
-        <v>3</v>
-      </c>
-      <c r="AC9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>26022036035</v>
       </c>
@@ -1803,28 +1772,28 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1836,13 +1805,13 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>1</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1854,31 +1823,28 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <v>1</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z10">
         <v>2</v>
       </c>
       <c r="AA10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB10">
-        <v>4</v>
-      </c>
-      <c r="AC10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>26022036036</v>
       </c>
@@ -1892,82 +1858,79 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>3</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
       </c>
       <c r="AA11">
         <v>3</v>
       </c>
       <c r="AB11">
-        <v>3</v>
-      </c>
-      <c r="AC11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>26022036037</v>
       </c>
@@ -1981,83 +1944,80 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+      <c r="Z12">
         <v>3</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>2</v>
       </c>
-      <c r="AA12">
-        <v>3</v>
-      </c>
       <c r="AB12">
-        <v>2</v>
-      </c>
-      <c r="AC12">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB7">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
